--- a/trabajoenclasebdr.xlsx
+++ b/trabajoenclasebdr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utpl\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{732B57B9-DEB7-4A8F-AAA2-141BCADFFF02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD655F2F-9B8E-4048-9A71-E2C7A5408F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12555" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{89580C44-BC40-4CF9-97E1-725AB25B2009}"/>
+    <workbookView xWindow="7305" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{89580C44-BC40-4CF9-97E1-725AB25B2009}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -42,9 +42,6 @@
     <t>Proyectos(Id_proyecto,Nombre_proyecto)</t>
   </si>
   <si>
-    <t>Supervisores(Id_empleado,Id_supervisor,Nombre_supervisor)</t>
-  </si>
-  <si>
     <t>Empleados</t>
   </si>
   <si>
@@ -54,9 +51,6 @@
     <t>Nombre_empleado</t>
   </si>
   <si>
-    <t>Empleados_Proyectos(Id_empleado,Id_proyecto)</t>
-  </si>
-  <si>
     <t>Proyectos</t>
   </si>
   <si>
@@ -66,16 +60,22 @@
     <t>Nombre_proyecto</t>
   </si>
   <si>
-    <t>Empleados_Proyectos</t>
-  </si>
-  <si>
-    <t>Supervisores</t>
-  </si>
-  <si>
     <t>Id_supervisor</t>
   </si>
   <si>
     <t>Nombre_supervisor</t>
+  </si>
+  <si>
+    <t>Supervisores_supervisa</t>
+  </si>
+  <si>
+    <t>Supervisores_supervisa(Id_empleado,Id_supervisor,Nombre_supervisor)</t>
+  </si>
+  <si>
+    <t>Empleados_tiene_proyectos</t>
+  </si>
+  <si>
+    <t>Empleados_tiene_proyectos(Id_empleado,Id_proyecto)</t>
   </si>
 </sst>
 </file>
@@ -490,12 +490,12 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.5703125" customWidth="1"/>
+    <col min="1" max="1" width="67.140625" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" customWidth="1"/>
     <col min="5" max="5" width="24.5703125" customWidth="1"/>
     <col min="6" max="6" width="25.42578125" customWidth="1"/>
@@ -511,19 +511,19 @@
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -535,19 +535,19 @@
         <v>0</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -556,16 +556,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D10" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D11" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -574,16 +574,16 @@
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D18" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.25">
@@ -592,20 +592,20 @@
     </row>
     <row r="22" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D22" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D23" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="4:6" x14ac:dyDescent="0.25">
